--- a/backend/fms_core/tests/valid_templates/Normalization_v4_5_0.xlsx
+++ b/backend/fms_core/tests/valid_templates/Normalization_v4_5_0.xlsx
@@ -24,7 +24,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>UFG</author>
   </authors>
   <commentList>
     <comment ref="U5" authorId="0">
@@ -2371,7 +2371,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AN1040"/>
+  <dimension ref="A1:AN1041"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
@@ -2379,7 +2379,7 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.51953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.51171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="27.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.4"/>
@@ -2782,95 +2782,89 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="19" t="s">
-        <v>31</v>
-      </c>
+      <c r="A9" s="19"/>
       <c r="B9" s="19"/>
-      <c r="C9" s="20" t="s">
-        <v>44</v>
-      </c>
+      <c r="C9" s="20"/>
       <c r="D9" s="20"/>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
-      <c r="G9" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>45</v>
-      </c>
+      <c r="G9" s="22"/>
+      <c r="H9" s="19"/>
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
-      <c r="K9" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="L9" s="23" t="s">
-        <v>35</v>
-      </c>
+      <c r="K9" s="19"/>
+      <c r="L9" s="23"/>
       <c r="M9" s="24"/>
       <c r="N9" s="25"/>
       <c r="O9" s="26"/>
-      <c r="P9" s="27" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q9" s="27" t="n">
-        <v>60</v>
-      </c>
-      <c r="R9" s="27" t="n">
-        <v>5</v>
-      </c>
-      <c r="S9" s="27" t="n">
-        <f aca="false">IF($P9*$R9=0,"",$P9*$R9)</f>
-        <v>50</v>
-      </c>
-      <c r="T9" s="27" t="n">
-        <v>5</v>
-      </c>
-      <c r="U9" s="27" t="n">
-        <v>10</v>
-      </c>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
       <c r="V9" s="27"/>
-      <c r="W9" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="X9" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y9" s="30" t="s">
-        <v>38</v>
-      </c>
+      <c r="W9" s="28"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="30"/>
     </row>
     <row r="10" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="19"/>
+      <c r="A10" s="19" t="s">
+        <v>31</v>
+      </c>
       <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
+      <c r="C10" s="20" t="s">
+        <v>44</v>
+      </c>
       <c r="D10" s="20"/>
       <c r="E10" s="21"/>
       <c r="F10" s="21"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="19"/>
+      <c r="G10" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>45</v>
+      </c>
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="23"/>
+      <c r="K10" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="23" t="s">
+        <v>35</v>
+      </c>
       <c r="M10" s="24"/>
       <c r="N10" s="25"/>
       <c r="O10" s="26"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27" t="str">
+      <c r="P10" s="27" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="27" t="n">
+        <v>60</v>
+      </c>
+      <c r="R10" s="27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" s="27" t="n">
         <f aca="false">IF($P10*$R10=0,"",$P10*$R10)</f>
-        <v/>
-      </c>
-      <c r="T10" s="27"/>
-      <c r="U10" s="27" t="str">
-        <f aca="false">IFERROR(P10*R10/T10, "")</f>
-        <v/>
+        <v>50</v>
+      </c>
+      <c r="T10" s="27" t="n">
+        <v>5</v>
+      </c>
+      <c r="U10" s="27" t="n">
+        <v>10</v>
       </c>
       <c r="V10" s="27"/>
-      <c r="W10" s="28"/>
-      <c r="X10" s="29"/>
-      <c r="Y10" s="30"/>
+      <c r="W10" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="X10" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y10" s="30" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="19"/>
@@ -5635,7 +5629,10 @@
         <v/>
       </c>
       <c r="T94" s="27"/>
-      <c r="U94" s="27"/>
+      <c r="U94" s="27" t="str">
+        <f aca="false">IFERROR(P94*R94/T94, "")</f>
+        <v/>
+      </c>
       <c r="V94" s="27"/>
       <c r="W94" s="28"/>
       <c r="X94" s="29"/>
@@ -6475,10 +6472,7 @@
         <v/>
       </c>
       <c r="T122" s="27"/>
-      <c r="U122" s="27" t="str">
-        <f aca="false">IFERROR(P122*R122/T122, "")</f>
-        <v/>
-      </c>
+      <c r="U122" s="27"/>
       <c r="V122" s="27"/>
       <c r="W122" s="28"/>
       <c r="X122" s="29"/>
@@ -6673,7 +6667,10 @@
         <v/>
       </c>
       <c r="T128" s="27"/>
-      <c r="U128" s="27"/>
+      <c r="U128" s="27" t="str">
+        <f aca="false">IFERROR(P128*R128/T128, "")</f>
+        <v/>
+      </c>
       <c r="V128" s="27"/>
       <c r="W128" s="28"/>
       <c r="X128" s="29"/>
@@ -6823,10 +6820,7 @@
         <v/>
       </c>
       <c r="T133" s="27"/>
-      <c r="U133" s="27" t="str">
-        <f aca="false">IFERROR(P133*R133/T133, "")</f>
-        <v/>
-      </c>
+      <c r="U133" s="27"/>
       <c r="V133" s="27"/>
       <c r="W133" s="28"/>
       <c r="X133" s="29"/>
@@ -9595,7 +9589,10 @@
         <v/>
       </c>
       <c r="T217" s="27"/>
-      <c r="U217" s="27"/>
+      <c r="U217" s="27" t="str">
+        <f aca="false">IFERROR(P217*R217/T217, "")</f>
+        <v/>
+      </c>
       <c r="V217" s="27"/>
       <c r="W217" s="28"/>
       <c r="X217" s="29"/>
@@ -10435,10 +10432,7 @@
         <v/>
       </c>
       <c r="T245" s="27"/>
-      <c r="U245" s="27" t="str">
-        <f aca="false">IFERROR(P245*R245/T245, "")</f>
-        <v/>
-      </c>
+      <c r="U245" s="27"/>
       <c r="V245" s="27"/>
       <c r="W245" s="28"/>
       <c r="X245" s="29"/>
@@ -10633,7 +10627,10 @@
         <v/>
       </c>
       <c r="T251" s="27"/>
-      <c r="U251" s="27"/>
+      <c r="U251" s="27" t="str">
+        <f aca="false">IFERROR(P251*R251/T251, "")</f>
+        <v/>
+      </c>
       <c r="V251" s="27"/>
       <c r="W251" s="28"/>
       <c r="X251" s="29"/>
@@ -10663,10 +10660,7 @@
         <v/>
       </c>
       <c r="T252" s="27"/>
-      <c r="U252" s="27" t="str">
-        <f aca="false">IFERROR(P252*R252/T252, "")</f>
-        <v/>
-      </c>
+      <c r="U252" s="27"/>
       <c r="V252" s="27"/>
       <c r="W252" s="28"/>
       <c r="X252" s="29"/>
@@ -13435,7 +13429,10 @@
         <v/>
       </c>
       <c r="T336" s="27"/>
-      <c r="U336" s="27"/>
+      <c r="U336" s="27" t="str">
+        <f aca="false">IFERROR(P336*R336/T336, "")</f>
+        <v/>
+      </c>
       <c r="V336" s="27"/>
       <c r="W336" s="28"/>
       <c r="X336" s="29"/>
@@ -14275,10 +14272,7 @@
         <v/>
       </c>
       <c r="T364" s="27"/>
-      <c r="U364" s="27" t="str">
-        <f aca="false">IFERROR(P364*R364/T364, "")</f>
-        <v/>
-      </c>
+      <c r="U364" s="27"/>
       <c r="V364" s="27"/>
       <c r="W364" s="28"/>
       <c r="X364" s="29"/>
@@ -14473,7 +14467,10 @@
         <v/>
       </c>
       <c r="T370" s="27"/>
-      <c r="U370" s="27"/>
+      <c r="U370" s="27" t="str">
+        <f aca="false">IFERROR(P370*R370/T370, "")</f>
+        <v/>
+      </c>
       <c r="V370" s="27"/>
       <c r="W370" s="28"/>
       <c r="X370" s="29"/>
@@ -14623,10 +14620,7 @@
         <v/>
       </c>
       <c r="T375" s="27"/>
-      <c r="U375" s="27" t="str">
-        <f aca="false">IFERROR(P375*R375/T375, "")</f>
-        <v/>
-      </c>
+      <c r="U375" s="27"/>
       <c r="V375" s="27"/>
       <c r="W375" s="28"/>
       <c r="X375" s="29"/>
@@ -17395,7 +17389,10 @@
         <v/>
       </c>
       <c r="T459" s="27"/>
-      <c r="U459" s="27"/>
+      <c r="U459" s="27" t="str">
+        <f aca="false">IFERROR(P459*R459/T459, "")</f>
+        <v/>
+      </c>
       <c r="V459" s="27"/>
       <c r="W459" s="28"/>
       <c r="X459" s="29"/>
@@ -18235,10 +18232,7 @@
         <v/>
       </c>
       <c r="T487" s="27"/>
-      <c r="U487" s="27" t="str">
-        <f aca="false">IFERROR(P487*R487/T487, "")</f>
-        <v/>
-      </c>
+      <c r="U487" s="27"/>
       <c r="V487" s="27"/>
       <c r="W487" s="28"/>
       <c r="X487" s="29"/>
@@ -18433,7 +18427,10 @@
         <v/>
       </c>
       <c r="T493" s="27"/>
-      <c r="U493" s="27"/>
+      <c r="U493" s="27" t="str">
+        <f aca="false">IFERROR(P493*R493/T493, "")</f>
+        <v/>
+      </c>
       <c r="V493" s="27"/>
       <c r="W493" s="28"/>
       <c r="X493" s="29"/>
@@ -18620,36 +18617,65 @@
       <c r="Y499" s="30"/>
     </row>
     <row r="500" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A500" s="31"/>
-      <c r="B500" s="31"/>
-      <c r="C500" s="32"/>
-      <c r="D500" s="32"/>
-      <c r="E500" s="33"/>
-      <c r="F500" s="33"/>
-      <c r="G500" s="34"/>
-      <c r="H500" s="31"/>
-      <c r="I500" s="31"/>
-      <c r="J500" s="31"/>
-      <c r="K500" s="31"/>
-      <c r="L500" s="35"/>
-      <c r="M500" s="36"/>
-      <c r="N500" s="37"/>
-      <c r="O500" s="38"/>
-      <c r="P500" s="39"/>
-      <c r="Q500" s="39"/>
-      <c r="R500" s="39"/>
-      <c r="S500" s="39" t="str">
+      <c r="A500" s="19"/>
+      <c r="B500" s="19"/>
+      <c r="C500" s="20"/>
+      <c r="D500" s="20"/>
+      <c r="E500" s="21"/>
+      <c r="F500" s="21"/>
+      <c r="G500" s="22"/>
+      <c r="H500" s="19"/>
+      <c r="I500" s="19"/>
+      <c r="J500" s="19"/>
+      <c r="K500" s="19"/>
+      <c r="L500" s="23"/>
+      <c r="M500" s="24"/>
+      <c r="N500" s="25"/>
+      <c r="O500" s="26"/>
+      <c r="P500" s="27"/>
+      <c r="Q500" s="27"/>
+      <c r="R500" s="27"/>
+      <c r="S500" s="27" t="str">
         <f aca="false">IF($P500*$R500=0,"",$P500*$R500)</f>
         <v/>
       </c>
-      <c r="T500" s="39"/>
-      <c r="U500" s="39"/>
-      <c r="V500" s="39"/>
-      <c r="W500" s="40"/>
-      <c r="X500" s="41"/>
-      <c r="Y500" s="42"/>
-    </row>
-    <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="T500" s="27"/>
+      <c r="U500" s="27"/>
+      <c r="V500" s="27"/>
+      <c r="W500" s="28"/>
+      <c r="X500" s="29"/>
+      <c r="Y500" s="30"/>
+    </row>
+    <row r="501" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A501" s="31"/>
+      <c r="B501" s="31"/>
+      <c r="C501" s="32"/>
+      <c r="D501" s="32"/>
+      <c r="E501" s="33"/>
+      <c r="F501" s="33"/>
+      <c r="G501" s="34"/>
+      <c r="H501" s="31"/>
+      <c r="I501" s="31"/>
+      <c r="J501" s="31"/>
+      <c r="K501" s="31"/>
+      <c r="L501" s="35"/>
+      <c r="M501" s="36"/>
+      <c r="N501" s="37"/>
+      <c r="O501" s="38"/>
+      <c r="P501" s="39"/>
+      <c r="Q501" s="39"/>
+      <c r="R501" s="39"/>
+      <c r="S501" s="39" t="str">
+        <f aca="false">IF($P501*$R501=0,"",$P501*$R501)</f>
+        <v/>
+      </c>
+      <c r="T501" s="39"/>
+      <c r="U501" s="39"/>
+      <c r="V501" s="39"/>
+      <c r="W501" s="40"/>
+      <c r="X501" s="41"/>
+      <c r="Y501" s="42"/>
+    </row>
     <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -19189,25 +19215,26 @@
     <row r="1038" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1039" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1040" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1041" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="O6:O500" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="O6:O501" type="list">
       <formula1>"YES"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D6:D500 H6:H500 N6:N500" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D6:D501 H6:H501 N6:N501" type="list">
       <formula1>Index!$A$2:$A$97</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L6:L500" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L6:L501" type="list">
       <formula1>Index!$E$2:$E$11</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="Y6:Y500" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="Y6:Y501" type="list">
       <formula1>Index!$F$2:$F$4</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A6:A500" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A6:A501" type="list">
       <formula1>Index!$G$2:$G$4</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -19234,7 +19261,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="49.65"/>
   </cols>
@@ -19512,7 +19539,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.51953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.51171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.87"/>
